--- a/backend/src/excel_handler/files/AL30.xlsx
+++ b/backend/src/excel_handler/files/AL30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,15 +439,23 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Adcap Wise Capital Growth</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>15956.15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19635.37</v>
       </c>
     </row>
     <row r="3">
@@ -459,15 +467,21 @@
       <c r="B3" t="n">
         <v>15956.15</v>
       </c>
+      <c r="C3" t="n">
+        <v>19635.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise Capital Growth</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>15956.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19635.37</v>
       </c>
     </row>
   </sheetData>
